--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.05210283723883</v>
+        <v>0.397225</v>
       </c>
       <c r="H2">
-        <v>1.05210283723883</v>
+        <v>1.191675</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2502673203813375</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3297344111653286</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N2">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O2">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P2">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q2">
-        <v>29.83543346800256</v>
+        <v>11.49527507579167</v>
       </c>
       <c r="R2">
-        <v>29.83543346800256</v>
+        <v>103.457475682125</v>
       </c>
       <c r="S2">
-        <v>0.2564720981355903</v>
+        <v>0.05979307762686237</v>
       </c>
       <c r="T2">
-        <v>0.2564720981355903</v>
+        <v>0.08240272082117418</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.05210283723883</v>
+        <v>0.397225</v>
       </c>
       <c r="H3">
-        <v>1.05210283723883</v>
+        <v>1.191675</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2502673203813375</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3297344111653286</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N3">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O3">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P3">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q3">
-        <v>34.29702946865488</v>
+        <v>14.183277319175</v>
       </c>
       <c r="R3">
-        <v>34.29702946865488</v>
+        <v>127.649495872575</v>
       </c>
       <c r="S3">
-        <v>0.294824981077541</v>
+        <v>0.0737748158401805</v>
       </c>
       <c r="T3">
-        <v>0.294824981077541</v>
+        <v>0.1016713939906113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.05210283723883</v>
+        <v>0.397225</v>
       </c>
       <c r="H4">
-        <v>1.05210283723883</v>
+        <v>1.191675</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2502673203813375</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3297344111653286</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N4">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O4">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P4">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q4">
-        <v>14.58057352050246</v>
+        <v>7.660165550549999</v>
       </c>
       <c r="R4">
-        <v>14.58057352050246</v>
+        <v>68.94148995495</v>
       </c>
       <c r="S4">
-        <v>0.1253378901578215</v>
+        <v>0.03984462054007085</v>
       </c>
       <c r="T4">
-        <v>0.1253378901578215</v>
+        <v>0.05491112471377519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.05210283723883</v>
+        <v>0.397225</v>
       </c>
       <c r="H5">
-        <v>1.05210283723883</v>
+        <v>1.191675</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2502673203813375</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3297344111653286</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N5">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O5">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P5">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q5">
-        <v>21.02759531430679</v>
+        <v>8.428027162766666</v>
       </c>
       <c r="R5">
-        <v>21.02759531430679</v>
+        <v>75.8522444649</v>
       </c>
       <c r="S5">
-        <v>0.180757939876763</v>
+        <v>0.04383867972380003</v>
       </c>
       <c r="T5">
-        <v>0.180757939876763</v>
+        <v>0.06041546329146068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.397225</v>
+      </c>
+      <c r="H6">
+        <v>1.191675</v>
+      </c>
+      <c r="I6">
+        <v>0.2502673203813375</v>
+      </c>
+      <c r="J6">
+        <v>0.3297344111653286</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>15.9793095</v>
+      </c>
+      <c r="N6">
+        <v>31.958619</v>
+      </c>
+      <c r="O6">
+        <v>0.1319234433010128</v>
+      </c>
+      <c r="P6">
+        <v>0.09199436674232302</v>
+      </c>
+      <c r="Q6">
+        <v>6.347381216137499</v>
+      </c>
+      <c r="R6">
+        <v>38.084287296825</v>
+      </c>
+      <c r="S6">
+        <v>0.03301612665042378</v>
+      </c>
+      <c r="T6">
+        <v>0.03033370834830717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04241433333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.127243</v>
+      </c>
+      <c r="I7">
+        <v>0.02672269255231714</v>
+      </c>
+      <c r="J7">
+        <v>0.03520791799770064</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>28.93895166666666</v>
+      </c>
+      <c r="N7">
+        <v>86.81685499999999</v>
+      </c>
+      <c r="O7">
+        <v>0.2389168411431201</v>
+      </c>
+      <c r="P7">
+        <v>0.2499063428956389</v>
+      </c>
+      <c r="Q7">
+        <v>1.227426342307222</v>
+      </c>
+      <c r="R7">
+        <v>11.046837080765</v>
+      </c>
+      <c r="S7">
+        <v>0.006384501291438394</v>
+      </c>
+      <c r="T7">
+        <v>0.008798682027774909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04241433333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.127243</v>
+      </c>
+      <c r="I8">
+        <v>0.02672269255231714</v>
+      </c>
+      <c r="J8">
+        <v>0.03520791799770064</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>35.705903</v>
+      </c>
+      <c r="N8">
+        <v>107.117709</v>
+      </c>
+      <c r="O8">
+        <v>0.2947840562154431</v>
+      </c>
+      <c r="P8">
+        <v>0.3083432925040795</v>
+      </c>
+      <c r="Q8">
+        <v>1.514442071809667</v>
+      </c>
+      <c r="R8">
+        <v>13.629978646287</v>
+      </c>
+      <c r="S8">
+        <v>0.007877423703570259</v>
+      </c>
+      <c r="T8">
+        <v>0.01085612535762465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04241433333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.127243</v>
+      </c>
+      <c r="I9">
+        <v>0.02672269255231714</v>
+      </c>
+      <c r="J9">
+        <v>0.03520791799770064</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.284198</v>
+      </c>
+      <c r="N9">
+        <v>57.852594</v>
+      </c>
+      <c r="O9">
+        <v>0.1592082437265831</v>
+      </c>
+      <c r="P9">
+        <v>0.1665313745074753</v>
+      </c>
+      <c r="Q9">
+        <v>0.8179264020379999</v>
+      </c>
+      <c r="R9">
+        <v>7.361337618342</v>
+      </c>
+      <c r="S9">
+        <v>0.004254472948899855</v>
+      </c>
+      <c r="T9">
+        <v>0.005863222977703565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04241433333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.127243</v>
+      </c>
+      <c r="I10">
+        <v>0.02672269255231714</v>
+      </c>
+      <c r="J10">
+        <v>0.03520791799770064</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.21726266666667</v>
+      </c>
+      <c r="N10">
+        <v>63.651788</v>
+      </c>
+      <c r="O10">
+        <v>0.1751674156138409</v>
+      </c>
+      <c r="P10">
+        <v>0.1832246233504832</v>
+      </c>
+      <c r="Q10">
+        <v>0.8999160511648888</v>
+      </c>
+      <c r="R10">
+        <v>8.099244460484</v>
+      </c>
+      <c r="S10">
+        <v>0.004680944992632627</v>
+      </c>
+      <c r="T10">
+        <v>0.006450957514083397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04241433333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.127243</v>
+      </c>
+      <c r="I11">
+        <v>0.02672269255231714</v>
+      </c>
+      <c r="J11">
+        <v>0.03520791799770064</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.9793095</v>
+      </c>
+      <c r="N11">
+        <v>31.958619</v>
+      </c>
+      <c r="O11">
+        <v>0.1319234433010128</v>
+      </c>
+      <c r="P11">
+        <v>0.09199436674232302</v>
+      </c>
+      <c r="Q11">
+        <v>0.6777517595695</v>
+      </c>
+      <c r="R11">
+        <v>4.066510557417</v>
+      </c>
+      <c r="S11">
+        <v>0.003525349615776008</v>
+      </c>
+      <c r="T11">
+        <v>0.003238930120514107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.1475635</v>
+      </c>
+      <c r="H12">
+        <v>2.295127</v>
+      </c>
+      <c r="I12">
+        <v>0.7230099870663453</v>
+      </c>
+      <c r="J12">
+        <v>0.6350576708369707</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.93895166666666</v>
+      </c>
+      <c r="N12">
+        <v>86.81685499999999</v>
+      </c>
+      <c r="O12">
+        <v>0.2389168411431201</v>
+      </c>
+      <c r="P12">
+        <v>0.2499063428956389</v>
+      </c>
+      <c r="Q12">
+        <v>33.20928466093083</v>
+      </c>
+      <c r="R12">
+        <v>199.255707965585</v>
+      </c>
+      <c r="S12">
+        <v>0.1727392622248194</v>
+      </c>
+      <c r="T12">
+        <v>0.1587049400466898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.05210283723883</v>
-      </c>
-      <c r="H6">
-        <v>1.05210283723883</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>15.7679471506722</v>
-      </c>
-      <c r="N6">
-        <v>15.7679471506722</v>
-      </c>
-      <c r="O6">
-        <v>0.1426070907522843</v>
-      </c>
-      <c r="P6">
-        <v>0.1426070907522843</v>
-      </c>
-      <c r="Q6">
-        <v>16.58950193465414</v>
-      </c>
-      <c r="R6">
-        <v>16.58950193465414</v>
-      </c>
-      <c r="S6">
-        <v>0.1426070907522843</v>
-      </c>
-      <c r="T6">
-        <v>0.1426070907522843</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.1475635</v>
+      </c>
+      <c r="H13">
+        <v>2.295127</v>
+      </c>
+      <c r="I13">
+        <v>0.7230099870663453</v>
+      </c>
+      <c r="J13">
+        <v>0.6350576708369707</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>35.705903</v>
+      </c>
+      <c r="N13">
+        <v>107.117709</v>
+      </c>
+      <c r="O13">
+        <v>0.2947840562154431</v>
+      </c>
+      <c r="P13">
+        <v>0.3083432925040795</v>
+      </c>
+      <c r="Q13">
+        <v>40.9747910173405</v>
+      </c>
+      <c r="R13">
+        <v>245.848746104043</v>
+      </c>
+      <c r="S13">
+        <v>0.2131318166716923</v>
+      </c>
+      <c r="T13">
+        <v>0.1958157731558435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.1475635</v>
+      </c>
+      <c r="H14">
+        <v>2.295127</v>
+      </c>
+      <c r="I14">
+        <v>0.7230099870663453</v>
+      </c>
+      <c r="J14">
+        <v>0.6350576708369707</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.284198</v>
+      </c>
+      <c r="N14">
+        <v>57.852594</v>
+      </c>
+      <c r="O14">
+        <v>0.1592082437265831</v>
+      </c>
+      <c r="P14">
+        <v>0.1665313745074753</v>
+      </c>
+      <c r="Q14">
+        <v>22.129841751573</v>
+      </c>
+      <c r="R14">
+        <v>132.779050509438</v>
+      </c>
+      <c r="S14">
+        <v>0.1151091502376124</v>
+      </c>
+      <c r="T14">
+        <v>0.1057570268159966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.1475635</v>
+      </c>
+      <c r="H15">
+        <v>2.295127</v>
+      </c>
+      <c r="I15">
+        <v>0.7230099870663453</v>
+      </c>
+      <c r="J15">
+        <v>0.6350576708369707</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.21726266666667</v>
+      </c>
+      <c r="N15">
+        <v>63.651788</v>
+      </c>
+      <c r="O15">
+        <v>0.1751674156138409</v>
+      </c>
+      <c r="P15">
+        <v>0.1832246233504832</v>
+      </c>
+      <c r="Q15">
+        <v>24.34815620617933</v>
+      </c>
+      <c r="R15">
+        <v>146.088937237076</v>
+      </c>
+      <c r="S15">
+        <v>0.1266477908974082</v>
+      </c>
+      <c r="T15">
+        <v>0.1163582025449391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.1475635</v>
+      </c>
+      <c r="H16">
+        <v>2.295127</v>
+      </c>
+      <c r="I16">
+        <v>0.7230099870663453</v>
+      </c>
+      <c r="J16">
+        <v>0.6350576708369707</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.9793095</v>
+      </c>
+      <c r="N16">
+        <v>31.958619</v>
+      </c>
+      <c r="O16">
+        <v>0.1319234433010128</v>
+      </c>
+      <c r="P16">
+        <v>0.09199436674232302</v>
+      </c>
+      <c r="Q16">
+        <v>18.33727233740325</v>
+      </c>
+      <c r="R16">
+        <v>73.349089349613</v>
+      </c>
+      <c r="S16">
+        <v>0.09538196703481301</v>
+      </c>
+      <c r="T16">
+        <v>0.05842172827350174</v>
       </c>
     </row>
   </sheetData>
